--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4559270516717325</v>
+        <v>0.486322188449848</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08935971812343664</v>
+        <v>0.0852897898613449</v>
       </c>
       <c r="J2" t="n">
-        <v>1146.350736214916</v>
+        <v>1058.516443649624</v>
       </c>
       <c r="K2" t="n">
-        <v>1616896.427020571</v>
+        <v>1311692.442379836</v>
       </c>
       <c r="L2" t="n">
-        <v>1271.572423034005</v>
+        <v>1145.291422468463</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6959880699983814</v>
+        <v>0.7533731015095146</v>
       </c>
     </row>
   </sheetData>
